--- a/demo/ams_benchmark/vis/ieee39_uced_vis.xlsx
+++ b/demo/ams_benchmark/vis/ieee39_uced_vis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/icebar/CaseStudy/vis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/demo/demo/ams_benchmark/vis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7DDCA-2FCB-154D-9D38-666B90610EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66FFD0F-3D28-1743-A8EB-7563ED51532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -3208,7 +3208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3AA480-0927-8540-AB5F-43174C12E624}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6691,9 +6691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6752,7 +6752,7 @@
       <c r="F2">
         <v>345</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="17">
         <v>3.2</v>
       </c>
       <c r="H2">
@@ -6787,7 +6787,7 @@
       <c r="F3">
         <v>345</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="17">
         <v>3.15</v>
       </c>
       <c r="H3">
@@ -6822,7 +6822,7 @@
       <c r="F4">
         <v>345</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="17">
         <v>3.6</v>
       </c>
       <c r="H4">
@@ -6857,8 +6857,8 @@
       <c r="F5">
         <v>345</v>
       </c>
-      <c r="G5">
-        <v>3.6539999999999995</v>
+      <c r="G5" s="17">
+        <v>3.6539999999999999</v>
       </c>
       <c r="H5">
         <v>1.2362</v>
@@ -6892,7 +6892,7 @@
       <c r="F6">
         <v>138</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="17">
         <v>0.1</v>
       </c>
       <c r="H6">
@@ -6927,8 +6927,8 @@
       <c r="F7">
         <v>345</v>
       </c>
-      <c r="G7">
-        <v>2.2399999999999998</v>
+      <c r="G7" s="17">
+        <v>2.2400000000000002</v>
       </c>
       <c r="H7">
         <v>1.071</v>
@@ -6962,7 +6962,7 @@
       <c r="F8">
         <v>345</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="17">
         <v>2.3029999999999999</v>
       </c>
       <c r="H8">
@@ -6997,7 +6997,7 @@
       <c r="F9">
         <v>345</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="17">
         <v>1.2</v>
       </c>
       <c r="H9">
@@ -7032,7 +7032,7 @@
       <c r="F10">
         <v>138</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="17">
         <v>0.7</v>
       </c>
       <c r="H10">
@@ -7067,7 +7067,7 @@
       <c r="F11">
         <v>345</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="17">
         <v>1.9179999999999999</v>
       </c>
       <c r="H11">
@@ -7102,7 +7102,7 @@
       <c r="F12">
         <v>345</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="17">
         <v>1.7324999999999999</v>
       </c>
       <c r="H12">
@@ -7137,7 +7137,7 @@
       <c r="F13">
         <v>345</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="17">
         <v>2.1602000000000001</v>
       </c>
       <c r="H13">
@@ -7172,7 +7172,7 @@
       <c r="F14">
         <v>345</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="17">
         <v>1.5680000000000001</v>
       </c>
       <c r="H14">
@@ -7207,8 +7207,8 @@
       <c r="F15">
         <v>345</v>
       </c>
-      <c r="G15">
-        <v>0.97299999999999986</v>
+      <c r="G15" s="17">
+        <v>0.97299999999999998</v>
       </c>
       <c r="H15">
         <v>0.11899999999999999</v>
@@ -7242,8 +7242,8 @@
       <c r="F16">
         <v>345</v>
       </c>
-      <c r="G16">
-        <v>1.9669999999999999</v>
+      <c r="G16" s="17">
+        <v>1.9670000000000001</v>
       </c>
       <c r="H16">
         <v>0.52849999999999997</v>
@@ -7277,7 +7277,7 @@
       <c r="F17">
         <v>345</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="17">
         <v>1.4419999999999999</v>
       </c>
       <c r="H17">
@@ -7312,7 +7312,7 @@
       <c r="F18">
         <v>345</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="17">
         <v>1.9844999999999999</v>
       </c>
       <c r="H18">
@@ -7347,8 +7347,8 @@
       <c r="F19">
         <v>34.5</v>
       </c>
-      <c r="G19">
-        <v>0.55999999999999994</v>
+      <c r="G19" s="17">
+        <v>0.56000000000000005</v>
       </c>
       <c r="H19">
         <v>0.27999999999999997</v>
@@ -7382,7 +7382,7 @@
       <c r="F20">
         <v>345</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="17">
         <v>2.8</v>
       </c>
       <c r="H20">

--- a/demo/ams_benchmark/vis/ieee39_uced_vis.xlsx
+++ b/demo/ams_benchmark/vis/ieee39_uced_vis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/demo/demo/ams_benchmark/vis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66FFD0F-3D28-1743-A8EB-7563ED51532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B0C57D-71B9-A14B-85C6-8E4D9CED09D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Shunt" sheetId="22" r:id="rId6"/>
     <sheet name="Line" sheetId="5" r:id="rId7"/>
     <sheet name="Area" sheetId="7" r:id="rId8"/>
-    <sheet name="Region" sheetId="8" r:id="rId9"/>
+    <sheet name="Zone" sheetId="8" r:id="rId9"/>
     <sheet name="GCost" sheetId="6" r:id="rId10"/>
     <sheet name="REGCV1" sheetId="25" r:id="rId11"/>
     <sheet name="VSGR" sheetId="23" r:id="rId12"/>
@@ -6691,7 +6691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
@@ -12609,7 +12609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
